--- a/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
+++ b/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="387">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
+    <t xml:space="preserve">nama_10_a64</t>
+  </si>
+  <si>
     <t xml:space="preserve">NACE_R2</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
     <t xml:space="preserve">U</t>
   </si>
   <si>
+    <t xml:space="preserve">nama_10_a64_e</t>
+  </si>
+  <si>
     <t xml:space="preserve">InputDataset</t>
   </si>
   <si>
@@ -295,9 +301,6 @@
     <t xml:space="preserve">ResultName</t>
   </si>
   <si>
-    <t xml:space="preserve">nama_10_a64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annual</t>
   </si>
   <si>
@@ -896,9 +899,6 @@
   </si>
   <si>
     <t xml:space="preserve">Activities of extraterritorial organisations and bodies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_10_a64_e</t>
   </si>
   <si>
     <t xml:space="preserve">PCH_PRE_HW</t>
@@ -1193,7 +1193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1217,6 +1217,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1278,7 +1285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1287,7 +1294,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1295,22 +1310,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1320,26 +1331,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1376,220 +1388,147 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="s">
-        <v>14</v>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="2" t="s">
-        <v>19</v>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="2" t="s">
-        <v>21</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1601,19 +1540,19 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="6" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="6" style="3" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="3" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1637,597 +1576,1432 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="D45" s="3"/>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2257,8 +3031,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2270,121 +3044,124 @@
   </sheetPr>
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="2" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="3" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
+      <c r="A1" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>99</v>
+      <c r="N2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2016</v>
@@ -2394,55 +3171,55 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U2" s="4"/>
-      <c r="V2" s="2" t="s">
-        <v>103</v>
+      <c r="V2" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>112</v>
+      <c r="N3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -2450,40 +3227,40 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>121</v>
+      <c r="N4" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -2491,40 +3268,40 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>130</v>
+      <c r="N5" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -2532,40 +3309,40 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>138</v>
+      <c r="N6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2573,40 +3350,40 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>147</v>
+      <c r="N7" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2616,34 +3393,34 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>155</v>
+      <c r="N8" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -2659,30 +3436,30 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>161</v>
+      <c r="N9" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2696,30 +3473,30 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>168</v>
+      <c r="N10" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2733,30 +3510,30 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>174</v>
+      <c r="N11" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2770,30 +3547,30 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>180</v>
+      <c r="N12" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2808,24 +3585,24 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>184</v>
+      <c r="N13" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2840,24 +3617,24 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>188</v>
+      <c r="N14" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2872,24 +3649,24 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>193</v>
+      <c r="N15" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2904,24 +3681,24 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>197</v>
+      <c r="N16" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2936,18 +3713,18 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2962,18 +3739,18 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2988,18 +3765,18 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -3014,10 +3791,10 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3036,10 +3813,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3058,10 +3835,10 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3080,10 +3857,10 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3102,10 +3879,10 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3124,10 +3901,10 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3146,10 +3923,10 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3168,10 +3945,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3190,10 +3967,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3212,10 +3989,10 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3234,10 +4011,10 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3256,10 +4033,10 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3278,10 +4055,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3300,10 +4077,10 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3322,10 +4099,10 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3344,10 +4121,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3366,10 +4143,10 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3388,10 +4165,10 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3410,10 +4187,10 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3432,10 +4209,10 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3454,10 +4231,10 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3476,10 +4253,10 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3498,10 +4275,10 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3520,10 +4297,10 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3542,10 +4319,10 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3564,10 +4341,10 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3586,10 +4363,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3608,10 +4385,10 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -3630,10 +4407,10 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3652,10 +4429,10 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3674,10 +4451,10 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3696,10 +4473,10 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -3718,10 +4495,10 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -3740,10 +4517,10 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3762,10 +4539,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -3784,10 +4561,10 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3806,10 +4583,10 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -3828,10 +4605,10 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -3850,10 +4627,10 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -3872,10 +4649,10 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -3894,10 +4671,10 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -3916,10 +4693,10 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -3938,10 +4715,10 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -3960,10 +4737,10 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -3982,10 +4759,10 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -4004,10 +4781,10 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -4026,10 +4803,10 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -4048,10 +4825,10 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -4083,97 +4860,97 @@
   </sheetPr>
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="2" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="3" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
+      <c r="A1" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>292</v>
@@ -4182,10 +4959,10 @@
         <v>293</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>294</v>
@@ -4194,16 +4971,16 @@
         <v>295</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>99</v>
+      <c r="N2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2016</v>
@@ -4213,16 +4990,16 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U2" s="4"/>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4234,10 +5011,10 @@
         <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>299</v>
@@ -4246,22 +5023,22 @@
         <v>300</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>112</v>
+      <c r="N3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -4275,10 +5052,10 @@
         <v>302</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>303</v>
@@ -4287,22 +5064,22 @@
         <v>304</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>121</v>
+      <c r="N4" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -4316,30 +5093,30 @@
         <v>306</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>130</v>
+      <c r="N5" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -4353,10 +5130,10 @@
         <v>308</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -4366,17 +5143,17 @@
       <c r="L6" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>138</v>
+      <c r="N6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -4390,30 +5167,30 @@
         <v>312</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>147</v>
+      <c r="N7" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -4435,11 +5212,11 @@
       <c r="L8" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>155</v>
+      <c r="N8" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -4456,24 +5233,24 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>161</v>
+      <c r="N9" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -4488,7 +5265,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>317</v>
@@ -4496,16 +5273,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>168</v>
+      <c r="N10" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -4520,24 +5297,24 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>174</v>
+      <c r="N11" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -4552,24 +5329,24 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>180</v>
+      <c r="N12" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -4584,10 +5361,10 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4597,11 +5374,11 @@
       <c r="L13" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>184</v>
+      <c r="N13" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -4616,10 +5393,10 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4629,11 +5406,11 @@
       <c r="L14" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>188</v>
+      <c r="N14" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -4648,7 +5425,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>322</v>
@@ -4656,16 +5433,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>193</v>
+      <c r="N15" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -4680,7 +5457,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>323</v>
@@ -4693,11 +5470,11 @@
       <c r="L16" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>197</v>
+      <c r="N16" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -4712,10 +5489,10 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -4746,10 +5523,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -4764,7 +5541,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>330</v>
@@ -4772,10 +5549,10 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -4790,10 +5567,10 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -4816,10 +5593,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -4842,7 +5619,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>335</v>
@@ -4850,10 +5627,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -4868,7 +5645,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>336</v>
@@ -4894,10 +5671,10 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -4920,7 +5697,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>341</v>
@@ -4946,7 +5723,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>344</v>
@@ -4954,10 +5731,10 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -4998,10 +5775,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -5050,7 +5827,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>355</v>
@@ -5076,7 +5853,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>358</v>
@@ -5102,7 +5879,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>361</v>
@@ -5154,7 +5931,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>368</v>
@@ -5180,7 +5957,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>371</v>
@@ -5206,10 +5983,10 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5284,7 +6061,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>384</v>
@@ -5292,10 +6069,10 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -5310,7 +6087,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>385</v>
@@ -5332,7 +6109,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>386</v>
@@ -5354,10 +6131,10 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5376,10 +6153,10 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5398,10 +6175,10 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5420,10 +6197,10 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5442,10 +6219,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5464,10 +6241,10 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5486,10 +6263,10 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5508,10 +6285,10 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5530,10 +6307,10 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5552,10 +6329,10 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5574,10 +6351,10 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5596,10 +6373,10 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5618,10 +6395,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5640,10 +6417,10 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5662,10 +6439,10 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5684,10 +6461,10 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5706,10 +6483,10 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5728,10 +6505,10 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5750,10 +6527,10 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5772,10 +6549,10 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5794,10 +6571,10 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5816,10 +6593,10 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5838,10 +6615,10 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5860,10 +6637,10 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5882,10 +6659,10 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -5904,10 +6681,10 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5926,10 +6703,10 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5948,10 +6725,10 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5970,10 +6747,10 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5992,10 +6769,10 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6014,10 +6791,10 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6036,10 +6813,10 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6058,10 +6835,10 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6080,10 +6857,10 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6102,10 +6879,10 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6124,10 +6901,10 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6146,10 +6923,10 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6168,10 +6945,10 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6190,10 +6967,10 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6212,10 +6989,10 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6234,10 +7011,10 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6256,10 +7033,10 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6278,10 +7055,10 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6300,10 +7077,10 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6322,10 +7099,10 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -6344,10 +7121,10 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6366,10 +7143,10 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -6388,10 +7165,10 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6410,10 +7187,10 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6432,10 +7209,10 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>

--- a/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
+++ b/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CategoriesMapping" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CodeHierarchies" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CodeHierarchiesMapping" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DatasetQry ds1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="DatasetQry ds2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -1316,12 +1316,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1527,8 +1527,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1540,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3031,8 +3031,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
+++ b/backend_tests/z_input_files/v2/08_caso_energia_eu_new_commands.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CategoriesMapping" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hierarchies" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="HierarchiesMapping" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DatasetQry ds1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="DatasetQry ds2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -1316,12 +1316,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1347,11 +1347,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,8 +1527,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3031,8 +3031,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3053,19 +3053,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="3" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="3" width="8.79"/>
   </cols>
   <sheetData>
@@ -4867,7 +4867,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="21.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="21.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.98"/>
@@ -4877,14 +4877,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="3" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="3" width="8.79"/>
   </cols>
   <sheetData>
